--- a/biology/Biologie cellulaire et moléculaire/Plaste/Plaste.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Plaste/Plaste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le plaste, appelé aussi plastide, est un organite présent dans les cellules des eucaryotes chlorophylliens (algues et plantes). Un plaste possède une enveloppe composée d'une ou plusieurs membranes. Suivant la cellule, les plastes peuvent se spécialiser pour accomplir certaines fonctions, ainsi les chloroplastes sont le siège de la photosynthèse, les amyloplastes sont spécialisés dans le stockage d'amidon, ou encore les chromoplastes qui donnent leurs couleurs aux fruits.
 Le plastidome désigne l'ensemble des plastes de ces cellules.
@@ -512,7 +524,9 @@
           <t>Matériel génétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ADN plastidial diffère légèrement de l'ADN du noyau cellulaire et de l'ADN mitochondrial. En particulier par une présence plus forte pour le couple Guanosine-Cytosine.
 La teneur en ADN est plus élevée dans les plastes que dans les mitochondries.
@@ -546,10 +560,12 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les plastes des eucaryotes photosynthétiques sont les produits évolutifs d'endosymbioses dont la première a eu lieu il y a 1,5 milliard d'années environ[1].
-Parmi l'ensemble des eucaryotes photosynthétiques, trois lignées possèdent un plaste à deux membranes : rhodoplaste chez les Rhodophyta (algues rouges), chloroplaste chez les Viridiplantae (algues et plantes vertes), et muroplaste chez les Glaucophyta. Toutes les autres détiennent un plaste à 3 ou 4 membranes issus d'une endosymbiose secondaire et tertiaire[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plastes des eucaryotes photosynthétiques sont les produits évolutifs d'endosymbioses dont la première a eu lieu il y a 1,5 milliard d'années environ.
+Parmi l'ensemble des eucaryotes photosynthétiques, trois lignées possèdent un plaste à deux membranes : rhodoplaste chez les Rhodophyta (algues rouges), chloroplaste chez les Viridiplantae (algues et plantes vertes), et muroplaste chez les Glaucophyta. Toutes les autres détiennent un plaste à 3 ou 4 membranes issus d'une endosymbiose secondaire et tertiaire.
 </t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>Types de plastes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On distingue de nombreux types de plastes, dont 6 sont interconvertibles :
 les proplastes, ou plastes non différenciés.
@@ -618,7 +636,9 @@
           <t>Comparaison</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Proplaste et plaste
 Chloroplaste et étioplaste
